--- a/evaluation/5.7_evaluation_prime_number.xlsx
+++ b/evaluation/5.7_evaluation_prime_number.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13185" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="Single " sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Median(s)</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>20 local threads</t>
+  </si>
+  <si>
+    <t>Single-threaded (= only 1 thread is created)</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:N27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +420,11 @@
     <col min="2" max="2" width="0.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
@@ -803,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J6"/>
     </sheetView>
   </sheetViews>
@@ -861,7 +869,7 @@
         <v>5.6</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="D5:J5" si="0">ROUND(AVERAGE(E8:E27),0)</f>
+        <f t="shared" ref="E5:J5" si="0">ROUND(AVERAGE(E8:E27),0)</f>
         <v>14</v>
       </c>
       <c r="F5">
@@ -895,7 +903,7 @@
         <v>0.01</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:J6" si="1">ROUND(_xlfn.STDEV.P(D8:D27),2)</f>
+        <f t="shared" ref="D6" si="1">ROUND(_xlfn.STDEV.P(D8:D27),2)</f>
         <v>0.1</v>
       </c>
       <c r="E6" s="2">
@@ -1458,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:J6"/>
     </sheetView>
   </sheetViews>
@@ -1550,31 +1558,31 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(D8:D27),1)</f>
+        <f t="shared" ref="D6:J6" si="1">ROUND(_xlfn.STDEV.P(D8:D27),1)</f>
         <v>0.4</v>
       </c>
       <c r="E6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(E8:E27),1)</f>
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
       <c r="F6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(F8:F27),1)</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="G6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(G8:G27),1)</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="H6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(H8:H27),1)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="I6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(I8:I27),1)</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="J6" s="2">
-        <f>ROUND(_xlfn.STDEV.P(J8:J27),1)</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="K6" s="2"/>
